--- a/docs/Peer Assessment Group 2.xlsx
+++ b/docs/Peer Assessment Group 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\SWE306\2023-09\Assessment\Assignment\Peer Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\code\myProject\spookify\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B632078D-6E06-4ADD-BDD7-10F8700CF252}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066962C0-66F4-4E6F-AAD0-F91C1906D8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{358BEAB8-ED26-489B-813F-52E6C4DB100E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25840" windowHeight="14027" xr2:uid="{358BEAB8-ED26-489B-813F-52E6C4DB100E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="53">
   <si>
     <t>Rating</t>
   </si>
@@ -43,7 +43,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -162,16 +162,71 @@
   <si>
     <t>Zhou ZiWei</t>
   </si>
+  <si>
+    <t>Excellent problem solving skills</t>
+  </si>
+  <si>
+    <t>Excellent problem solving skills</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Very supportive, especially regarding back-end</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Very supportive ,especially regarding front-end</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Very supportive, especially regarding front-end</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Responsible for conducting virtual meeting</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Responsible for conducting physical meeting</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regularly tracking work progress and coordinating</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Using dev-hotfix, dev-hotfix-Qiu branches to monitor and make commitment</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Using dev-hotfix, dev-hotfix-Xu branches to monitor and make commitment</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Using dev-hotfix, dev-hotfix-Liu branches to monitor and make commitment</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Using dev-hotfix, dev-hotfix-Luo branches to monitor and make commitment</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Using dev-hotfix, dev-hotfix-Zhou branches to monitor and make commitment</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relatively readable and concise code with vast functionalities incorporated</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -179,7 +234,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -187,7 +242,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -195,28 +250,35 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -234,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -255,26 +317,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -329,11 +371,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -352,10 +471,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -367,30 +486,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -406,7 +543,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -705,19 +842,19 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.08984375" customWidth="1"/>
-    <col min="2" max="2" width="32.6328125" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" customWidth="1"/>
-    <col min="4" max="4" width="80.26953125" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="80.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -731,252 +868,353 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.35" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
       <c r="B3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.35" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
       <c r="B4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.35" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
       <c r="B5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.35" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
       <c r="B6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.35" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:4" ht="15.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.35" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
       <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.35" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
       <c r="B10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.35" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
       <c r="B11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.35" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
       <c r="B12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.35" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
       <c r="B15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
       <c r="B16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
       <c r="B17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
       <c r="B18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.35" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="16"/>
+      <c r="C20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
       <c r="B21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="16"/>
+      <c r="C21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
       <c r="B22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="16"/>
+      <c r="C22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
       <c r="B23" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="16"/>
+      <c r="C23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
       <c r="B24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.35" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
     </row>
-    <row r="26" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="13"/>
+      <c r="C26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
       <c r="B27" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="13"/>
+      <c r="C27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
       <c r="B28" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="13"/>
+      <c r="C28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
       <c r="B29" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="13"/>
+      <c r="C29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
       <c r="B30" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:A30"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:A30"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -1026,162 +1264,163 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7265625" customWidth="1"/>
+    <col min="1" max="1" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>